--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.5387103148538159</v>
+        <v>2.5387102526356813</v>
       </c>
       <c r="C2">
-        <v>7.6214694322499952</v>
+        <v>7.6214694141300754</v>
       </c>
       <c r="D2">
-        <v>9.0243145834534459</v>
+        <v>9.024314561264724</v>
       </c>
       <c r="E2">
-        <v>17.044436021771681</v>
+        <v>17.044435990418812</v>
       </c>
       <c r="F2">
-        <v>5.6269008189822358</v>
+        <v>5.6269008197751731</v>
       </c>
       <c r="G2">
-        <v>1.6470565836641953</v>
+        <v>1.6470565704463169</v>
       </c>
       <c r="H2">
-        <v>5.4285951731873681</v>
+        <v>5.4285951201774907</v>
       </c>
       <c r="I2">
-        <v>8.1138522706000558</v>
+        <v>8.113852270280006</v>
       </c>
       <c r="J2">
-        <v>13.944944546337211</v>
+        <v>13.944944534352373</v>
       </c>
       <c r="K2">
-        <v>3.4246688838026103</v>
+        <v>3.4246688681826356</v>
       </c>
       <c r="L2">
-        <v>3.4018954846616296</v>
+        <v>3.4018954638623384</v>
       </c>
       <c r="M2">
-        <v>-6.9269840464927768</v>
+        <v>-6.9269840768907898</v>
       </c>
       <c r="N2">
-        <v>9.2852457960586179</v>
+        <v>9.2852457812745115</v>
       </c>
       <c r="O2">
-        <v>6.1324170532186884</v>
+        <v>6.1324170381624299</v>
       </c>
       <c r="P2">
-        <v>11.161153351480785</v>
+        <v>11.161153317308283</v>
       </c>
       <c r="Q2">
-        <v>-3.0345683218612862E-2</v>
+        <v>-3.0345712857489104E-2</v>
       </c>
       <c r="R2">
-        <v>-4.5192477991892304</v>
+        <v>-4.5192477786255836</v>
       </c>
       <c r="S2">
-        <v>18.131246903630796</v>
+        <v>18.131246925082195</v>
       </c>
       <c r="T2">
-        <v>15.66277253505816</v>
+        <v>15.66277253935872</v>
       </c>
       <c r="U2">
-        <v>-1.1925232111277069</v>
+        <v>-1.1925232295407255</v>
       </c>
       <c r="V2">
-        <v>3.3574693012059456</v>
+        <v>3.3574692930202943</v>
       </c>
       <c r="W2">
-        <v>-6.7266750666866457</v>
+        <v>-6.7266750997695723</v>
       </c>
       <c r="X2">
-        <v>-5.6088217494732362E-2</v>
+        <v>-5.6088236715091E-2</v>
       </c>
       <c r="Y2">
-        <v>13.916166748019101</v>
+        <v>13.916166720638749</v>
       </c>
       <c r="Z2">
-        <v>8.4138007563718347</v>
+        <v>8.4138007356230915</v>
       </c>
       <c r="AA2">
-        <v>19.877921357242997</v>
+        <v>19.877921305538436</v>
       </c>
       <c r="AB2">
-        <v>15.492658624938983</v>
+        <v>15.492658539915524</v>
       </c>
       <c r="AC2">
-        <v>-0.32426468439481226</v>
+        <v>-0.32426468338932324</v>
       </c>
       <c r="AD2">
-        <v>20.19810612031273</v>
+        <v>20.198106037295915</v>
       </c>
       <c r="AE2">
-        <v>5.1287066660171874</v>
+        <v>5.1287066449315617</v>
       </c>
       <c r="AF2">
-        <v>10.036374732543322</v>
+        <v>10.036374693867934</v>
       </c>
       <c r="AG2">
-        <v>10.20318535534787</v>
+        <v>10.203185347789841</v>
       </c>
       <c r="AH2">
-        <v>11.017282194413866</v>
+        <v>11.017282167806265</v>
       </c>
       <c r="AI2">
-        <v>19.973071543137664</v>
+        <v>19.973071498811251</v>
       </c>
       <c r="AJ2">
-        <v>8.090193861224229</v>
+        <v>8.0901938398519277</v>
       </c>
       <c r="AK2">
-        <v>11.447373536028437</v>
+        <v>11.447373506956765</v>
       </c>
       <c r="AL2">
-        <v>-4.3770109868627856</v>
+        <v>-4.3770110021048509</v>
       </c>
       <c r="AM2">
-        <v>11.713324587059674</v>
+        <v>11.71332453825066</v>
       </c>
       <c r="AN2">
-        <v>9.5953373512962656</v>
+        <v>9.5953373299186637</v>
       </c>
       <c r="AO2">
-        <v>18.920071950077542</v>
+        <v>18.920071903201475</v>
       </c>
       <c r="AP2">
-        <v>13.942111729699221</v>
+        <v>13.942111704710328</v>
       </c>
       <c r="AQ2">
-        <v>-5.1444421883427722</v>
+        <v>-5.1444421971330101</v>
       </c>
       <c r="AR2">
-        <v>19.461782727927471</v>
+        <v>19.4617827169143</v>
       </c>
       <c r="AS2">
-        <v>14.601394321448112</v>
+        <v>14.601394295842596</v>
       </c>
       <c r="AT2">
-        <v>6.1854918774650827</v>
+        <v>6.185491848307052</v>
       </c>
       <c r="AU2">
-        <v>10.214110526518112</v>
+        <v>10.214110516955323</v>
       </c>
       <c r="AV2">
-        <v>3.6472973324427826</v>
+        <v>3.6472972384994264</v>
       </c>
       <c r="AW2">
-        <v>4.0828981979892092</v>
+        <v>4.0828981685188097</v>
       </c>
       <c r="AX2">
-        <v>12.631323631888705</v>
+        <v>12.631323602444894</v>
       </c>
       <c r="AY2">
-        <v>16.245940248630284</v>
+        <v>16.245940230342946</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.2664863128711445</v>
+        <v>8.2664861702904986</v>
       </c>
       <c r="C3">
-        <v>6.3479361689788973</v>
+        <v>6.3479361363068918</v>
       </c>
       <c r="D3">
-        <v>13.186041367268658</v>
+        <v>13.186041289375055</v>
       </c>
       <c r="E3">
-        <v>13.756592838553217</v>
+        <v>13.756592819410869</v>
       </c>
       <c r="F3">
-        <v>4.7013140474321347</v>
+        <v>4.7013140189953333</v>
       </c>
       <c r="G3">
-        <v>10.775167518357961</v>
+        <v>10.775167488299807</v>
       </c>
       <c r="H3">
-        <v>-2.3198708380351576</v>
+        <v>-2.319870827880834</v>
       </c>
       <c r="I3">
-        <v>3.2170748954077837</v>
+        <v>3.2170748805527936</v>
       </c>
       <c r="J3">
-        <v>16.071147537472356</v>
+        <v>16.071147481147548</v>
       </c>
       <c r="K3">
-        <v>22.108339659676282</v>
+        <v>22.108339652979559</v>
       </c>
       <c r="L3">
-        <v>13.96405661508885</v>
+        <v>13.964056585837334</v>
       </c>
       <c r="M3">
-        <v>-0.32335507374784811</v>
+        <v>-0.32345304631172667</v>
       </c>
       <c r="N3">
-        <v>8.2072100431750528</v>
+        <v>8.2072100330232018</v>
       </c>
       <c r="O3">
-        <v>-11.056579334738764</v>
+        <v>-11.056579331350925</v>
       </c>
       <c r="P3">
-        <v>12.234002734477826</v>
+        <v>12.234002695476349</v>
       </c>
       <c r="Q3">
-        <v>4.9405148210753183</v>
+        <v>4.9405147909625882</v>
       </c>
       <c r="R3">
-        <v>-0.88642084425319467</v>
+        <v>-0.88642087638426403</v>
       </c>
       <c r="S3">
-        <v>15.593538812303343</v>
+        <v>15.59353878347347</v>
       </c>
       <c r="T3">
-        <v>15.772331088666796</v>
+        <v>15.772331065093248</v>
       </c>
       <c r="U3">
-        <v>7.2521276951696549</v>
+        <v>7.2521276686035279</v>
       </c>
       <c r="V3">
-        <v>8.722186228017847</v>
+        <v>8.72218623875942</v>
       </c>
       <c r="W3">
-        <v>1.4151561953875458</v>
+        <v>1.4151561480693786</v>
       </c>
       <c r="X3">
-        <v>-2.7353796915538666</v>
+        <v>-2.7353797058877589</v>
       </c>
       <c r="Y3">
-        <v>18.263540685526173</v>
+        <v>18.263540644644017</v>
       </c>
       <c r="Z3">
-        <v>10.133870958005069</v>
+        <v>10.133870935038907</v>
       </c>
       <c r="AA3">
-        <v>19.150710723538509</v>
+        <v>19.150710682494548</v>
       </c>
       <c r="AB3">
-        <v>14.48737249167268</v>
+        <v>14.487372454385444</v>
       </c>
       <c r="AC3">
-        <v>14.281027520937393</v>
+        <v>14.281027488183355</v>
       </c>
       <c r="AD3">
-        <v>19.215279864004195</v>
+        <v>19.215279842202726</v>
       </c>
       <c r="AE3">
-        <v>11.005589484162122</v>
+        <v>11.005589459837758</v>
       </c>
       <c r="AF3">
-        <v>10.59067270478436</v>
+        <v>10.590672663873242</v>
       </c>
       <c r="AG3">
-        <v>5.7749154617261738</v>
+        <v>5.7749154368143252</v>
       </c>
       <c r="AH3">
-        <v>2.3140144461823695</v>
+        <v>2.3140144199819872</v>
       </c>
       <c r="AI3">
-        <v>37.239984920945929</v>
+        <v>37.239984888234517</v>
       </c>
       <c r="AJ3">
-        <v>16.157537433038776</v>
+        <v>16.157537392109845</v>
       </c>
       <c r="AK3">
-        <v>12.48161410239419</v>
+        <v>12.481614067797423</v>
       </c>
       <c r="AL3">
-        <v>7.445175881991382</v>
+        <v>7.4451758558788796</v>
       </c>
       <c r="AM3">
-        <v>11.075482697776835</v>
+        <v>11.075482619347596</v>
       </c>
       <c r="AN3">
-        <v>-9.0660400982731133</v>
+        <v>-9.0660401150076737</v>
       </c>
       <c r="AO3">
-        <v>17.632484511208069</v>
+        <v>17.632484448372416</v>
       </c>
       <c r="AP3">
-        <v>3.1542313283223748</v>
+        <v>3.1542312914219721</v>
       </c>
       <c r="AQ3">
-        <v>8.5689204970317121</v>
+        <v>8.5689204771729308</v>
       </c>
       <c r="AR3">
-        <v>25.654113877467914</v>
+        <v>25.654113847007487</v>
       </c>
       <c r="AS3">
-        <v>12.38037596178625</v>
+        <v>12.380375948849746</v>
       </c>
       <c r="AT3">
-        <v>8.8295577438152861</v>
+        <v>8.8295577149724949</v>
       </c>
       <c r="AU3">
-        <v>6.0383099072392667</v>
+        <v>6.0383099006161771</v>
       </c>
       <c r="AV3">
-        <v>3.1401718984143301</v>
+        <v>3.1401718442306716</v>
       </c>
       <c r="AW3">
-        <v>1.1428120131449759</v>
+        <v>1.142811982336255</v>
       </c>
       <c r="AX3">
-        <v>7.7824759444774827</v>
+        <v>7.7824759232084517</v>
       </c>
       <c r="AY3">
-        <v>19.824544592453968</v>
+        <v>19.824544561676653</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>2.5387102526356813</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7.6214694141300754</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>9.024314561264724</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>17.044435990418812</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>5.6269008197751731</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.6470565704463169</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>5.4285951201774907</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>8.113852270280006</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>13.944944534352373</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>3.4246688681826356</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.4018954638623384</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-6.9269840768907898</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>9.2852457812745115</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>6.1324170381624299</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>11.161153317308283</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-3.0345712857489104E-2</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-4.5192477786255836</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>18.131246925082195</v>
+        <v>11.109690099689317</v>
       </c>
       <c r="T2">
         <v>15.66277253935872</v>
@@ -588,55 +477,55 @@
         <v>8.4138007356230915</v>
       </c>
       <c r="AA2">
-        <v>19.877921305538436</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>15.492658539915524</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-0.32426468338932324</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>20.198106037295915</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>5.1287066449315617</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>10.036374693867934</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>10.203185347789841</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>11.017282167806265</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>19.973071498811251</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>8.0901938398519277</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>11.447373506956765</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-4.3770110021048509</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>11.71332453825066</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>9.5953373299186637</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>18.920071903201475</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>13.942111704710328</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-5.1444421971330101</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>19.4617827169143</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>8.2664861702904986</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>6.3479361363068918</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>13.186041289375055</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>13.756592819410869</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4.7013140189953333</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>10.775167488299807</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-2.319870827880834</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3.2170748805527936</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>16.071147481147548</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>22.108339652979559</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>13.964056585837334</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.32345304631172667</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>8.2072100330232018</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-11.056579331350925</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.234002695476349</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>4.9405147909625882</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>-0.88642087638426403</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>15.59353878347347</v>
@@ -743,55 +629,55 @@
         <v>10.133870935038907</v>
       </c>
       <c r="AA3">
-        <v>19.150710682494548</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>14.487372454385444</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>14.281027488183355</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>19.215279842202726</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>11.005589459837758</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>10.590672663873242</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>5.7749154368143252</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>2.3140144199819872</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>37.239984888234517</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>16.157537392109845</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>12.481614067797423</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>7.4451758558788796</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>11.075482619347596</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-9.0660401150076737</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>17.632484448372416</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>3.1542312914219721</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>8.5689204771729308</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>25.654113847007487</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,11 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>2.5387103148538159</v>
-      </c>
       <c r="C2">
-        <v>5.5493970015228626</v>
-      </c>
-      <c r="D2">
-        <v>9.0243145834534459</v>
+        <v>-4.5192477786255836</v>
       </c>
       <c r="E2">
-        <v>17.044436021771681</v>
+        <v>-5.1444421971330101</v>
       </c>
       <c r="F2">
         <v>5.6269008189822358</v>
@@ -673,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.2664863128711445</v>
+        <v>-5.4378866419480616</v>
       </c>
       <c r="C3">
-        <v>6.3479361689788973</v>
+        <v>-0.88642087638426403</v>
       </c>
       <c r="D3">
-        <v>13.186041367268658</v>
+        <v>-8.3587685308973292</v>
       </c>
       <c r="E3">
-        <v>13.756592838553217</v>
+        <v>9.4870072226013917</v>
       </c>
       <c r="F3">
         <v>4.7013140474321347</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.5387103148538159</v>
-      </c>
-      <c r="C2">
-        <v>5.5493970015228626</v>
+        <v>9.3300853526987098</v>
       </c>
       <c r="D2">
-        <v>9.0243145834534459</v>
-      </c>
-      <c r="E2">
-        <v>17.044436021771681</v>
+        <v>13.642110837388771</v>
       </c>
       <c r="F2">
         <v>5.6269008189822358</v>
@@ -664,16 +653,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.2664863128711445</v>
+        <v>8.2072100330232018</v>
       </c>
       <c r="C3">
-        <v>6.3479361689788973</v>
+        <v>-5.4378866419480616</v>
       </c>
       <c r="D3">
-        <v>13.186041367268658</v>
+        <v>11.075482619347596</v>
       </c>
       <c r="E3">
-        <v>18.960855443398358</v>
+        <v>-8.3587685308973292</v>
       </c>
       <c r="F3">
         <v>4.7013140474321347</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,139 +513,145 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>2.7102719479391624</v>
+      </c>
+      <c r="C2">
+        <v>5.5493969277678445</v>
+      </c>
+      <c r="D2">
+        <v>11.723191542382665</v>
+      </c>
+      <c r="E2">
+        <v>18.004377129057339</v>
+      </c>
+      <c r="F2">
+        <v>5.6269008197751731</v>
+      </c>
+      <c r="G2">
+        <v>5.4325342822154212</v>
+      </c>
+      <c r="H2">
+        <v>5.6855177962811823</v>
+      </c>
+      <c r="I2">
+        <v>11.851522231658983</v>
+      </c>
+      <c r="J2">
+        <v>14.098089551001181</v>
+      </c>
+      <c r="K2">
+        <v>4.3704474192716987</v>
+      </c>
+      <c r="L2">
+        <v>7.0613201726847379</v>
+      </c>
+      <c r="M2">
+        <v>-3.397834303953573E-2</v>
+      </c>
+      <c r="N2">
         <v>9.3300853526987098</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>12.544500001226709</v>
+      </c>
+      <c r="Q2">
+        <v>-3.0345712857489104E-2</v>
+      </c>
+      <c r="R2">
+        <v>-4.5192477786255836</v>
+      </c>
+      <c r="T2">
+        <v>12.777827539744095</v>
+      </c>
+      <c r="U2">
+        <v>-0.21779614901619482</v>
+      </c>
+      <c r="V2">
+        <v>9.2202265368452316</v>
+      </c>
+      <c r="W2">
+        <v>-3.2989028978216695</v>
+      </c>
+      <c r="X2">
+        <v>1.3394955919686566</v>
+      </c>
+      <c r="Y2">
+        <v>14.383620259313716</v>
+      </c>
+      <c r="Z2">
+        <v>8.4138007356230915</v>
+      </c>
+      <c r="AA2">
+        <v>20.489848087223621</v>
+      </c>
+      <c r="AB2">
+        <v>15.492658539915524</v>
+      </c>
+      <c r="AC2">
+        <v>2.631620958936594</v>
+      </c>
+      <c r="AD2">
+        <v>22.695491080381572</v>
+      </c>
+      <c r="AE2">
+        <v>5.1287066449315617</v>
+      </c>
+      <c r="AF2">
+        <v>10.036374693867934</v>
+      </c>
+      <c r="AG2">
+        <v>10.219096332374498</v>
+      </c>
+      <c r="AH2">
+        <v>12.713609797094968</v>
+      </c>
+      <c r="AI2">
+        <v>20.381543048245263</v>
+      </c>
+      <c r="AJ2">
+        <v>10.103101330581417</v>
+      </c>
+      <c r="AK2">
+        <v>13.384618746948753</v>
+      </c>
+      <c r="AL2">
+        <v>-4.3770110021048509</v>
+      </c>
+      <c r="AM2">
         <v>13.642110837388771</v>
       </c>
-      <c r="F2">
-        <v>5.6269008189822358</v>
-      </c>
-      <c r="G2">
-        <v>5.4325343115496665</v>
-      </c>
-      <c r="H2">
-        <v>5.4285951731873681</v>
-      </c>
-      <c r="I2">
-        <v>11.795207673780567</v>
-      </c>
-      <c r="J2">
-        <v>13.944944546337211</v>
-      </c>
-      <c r="K2">
-        <v>3.4246688838026103</v>
-      </c>
-      <c r="L2">
-        <v>4.3140125838852015</v>
-      </c>
-      <c r="M2">
-        <v>-3.3978334275673205E-2</v>
-      </c>
-      <c r="N2">
-        <v>8.5839465047817853</v>
-      </c>
-      <c r="P2">
-        <v>12.544500049924572</v>
-      </c>
-      <c r="Q2">
-        <v>-3.0345683218612862E-2</v>
-      </c>
-      <c r="R2">
-        <v>-4.5192477991892304</v>
-      </c>
-      <c r="T2">
-        <v>12.777827536065416</v>
-      </c>
-      <c r="U2">
-        <v>-1.1925232111277069</v>
-      </c>
-      <c r="V2">
-        <v>6.110314014213408</v>
-      </c>
-      <c r="W2">
-        <v>-6.7096507599003914</v>
-      </c>
-      <c r="X2">
-        <v>-5.6088217494732362E-2</v>
-      </c>
-      <c r="Y2">
-        <v>13.916166748019101</v>
-      </c>
-      <c r="Z2">
-        <v>8.4138007563718347</v>
-      </c>
-      <c r="AA2">
-        <v>19.877921357242997</v>
-      </c>
-      <c r="AB2">
-        <v>15.492658624938983</v>
-      </c>
-      <c r="AC2">
-        <v>-0.32426468439481226</v>
-      </c>
-      <c r="AD2">
-        <v>20.19810612031273</v>
-      </c>
-      <c r="AE2">
-        <v>5.1287066660171874</v>
-      </c>
-      <c r="AF2">
-        <v>10.036374732543322</v>
-      </c>
-      <c r="AG2">
-        <v>10.20318535534787</v>
-      </c>
-      <c r="AH2">
-        <v>11.017282194413866</v>
-      </c>
-      <c r="AI2">
-        <v>19.973071543137664</v>
-      </c>
-      <c r="AJ2">
-        <v>8.090193861224229</v>
-      </c>
-      <c r="AK2">
-        <v>11.447373536028437</v>
-      </c>
-      <c r="AL2">
-        <v>-4.3770109868627856</v>
-      </c>
-      <c r="AM2">
-        <v>11.713324587059674</v>
-      </c>
       <c r="AO2">
-        <v>18.920071950077542</v>
+        <v>18.920071903201475</v>
       </c>
       <c r="AP2">
-        <v>16.044515128893281</v>
+        <v>16.044515097882666</v>
       </c>
       <c r="AQ2">
-        <v>-5.1444421883427722</v>
+        <v>-5.1444421971330101</v>
       </c>
       <c r="AR2">
-        <v>19.461782727927471</v>
+        <v>19.794730441151174</v>
       </c>
       <c r="AS2">
-        <v>14.601394321448112</v>
+        <v>14.601394295842596</v>
       </c>
       <c r="AT2">
-        <v>6.1854918774650827</v>
+        <v>7.4443815238418836</v>
       </c>
       <c r="AU2">
-        <v>5.0563576032852993</v>
+        <v>6.0872162364120541</v>
       </c>
       <c r="AV2">
-        <v>3.6911307484758638</v>
+        <v>10.926095032208487</v>
       </c>
       <c r="AW2">
-        <v>4.0828981979892092</v>
+        <v>5.751639370164078</v>
       </c>
       <c r="AX2">
-        <v>12.631323631888705</v>
+        <v>13.263846482956183</v>
       </c>
       <c r="AY2">
-        <v>16.245940248630284</v>
+        <v>16.245940230342946</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -653,154 +659,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>8.2664861702904986</v>
+      </c>
+      <c r="C3">
+        <v>7.3555051439307562</v>
+      </c>
+      <c r="D3">
+        <v>13.186041289375055</v>
+      </c>
+      <c r="E3">
+        <v>18.960855404418552</v>
+      </c>
+      <c r="F3">
+        <v>5.3542700077552183</v>
+      </c>
+      <c r="G3">
+        <v>11.637653421785274</v>
+      </c>
+      <c r="H3">
+        <v>-2.319870827880834</v>
+      </c>
+      <c r="I3">
+        <v>3.2170748805527936</v>
+      </c>
+      <c r="J3">
+        <v>16.071147481147548</v>
+      </c>
+      <c r="K3">
+        <v>18.885520844617126</v>
+      </c>
+      <c r="L3">
+        <v>13.964056585837334</v>
+      </c>
+      <c r="M3">
+        <v>-3.1085370227115305</v>
+      </c>
+      <c r="N3">
         <v>8.2072100330232018</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-5.4378866419480616</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>12.931075068089498</v>
+      </c>
+      <c r="Q3">
+        <v>5.413436002500454</v>
+      </c>
+      <c r="R3">
+        <v>2.0259693907336853</v>
+      </c>
+      <c r="S3">
+        <v>15.59353878347347</v>
+      </c>
+      <c r="T3">
+        <v>16.247765423193364</v>
+      </c>
+      <c r="U3">
+        <v>7.2521276686035279</v>
+      </c>
+      <c r="V3">
+        <v>10.246739022117929</v>
+      </c>
+      <c r="W3">
+        <v>1.4449796858719637</v>
+      </c>
+      <c r="X3">
+        <v>-2.7353797058877589</v>
+      </c>
+      <c r="Y3">
+        <v>18.263540644644017</v>
+      </c>
+      <c r="Z3">
+        <v>10.342583118105118</v>
+      </c>
+      <c r="AA3">
+        <v>19.150710682494548</v>
+      </c>
+      <c r="AB3">
+        <v>16.694345487915989</v>
+      </c>
+      <c r="AC3">
+        <v>14.281027488183355</v>
+      </c>
+      <c r="AD3">
+        <v>19.215279842202726</v>
+      </c>
+      <c r="AE3">
+        <v>12.001429921107359</v>
+      </c>
+      <c r="AF3">
+        <v>11.583993117579446</v>
+      </c>
+      <c r="AG3">
+        <v>5.7749154368143252</v>
+      </c>
+      <c r="AH3">
+        <v>2.3140144199819872</v>
+      </c>
+      <c r="AI3">
+        <v>15.926926862123153</v>
+      </c>
+      <c r="AJ3">
+        <v>16.157537392109845</v>
+      </c>
+      <c r="AK3">
+        <v>12.481614067797423</v>
+      </c>
+      <c r="AL3">
+        <v>9.979800105376448</v>
+      </c>
+      <c r="AM3">
         <v>11.075482619347596</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-8.3587685308973292</v>
       </c>
-      <c r="F3">
-        <v>4.7013140474321347</v>
-      </c>
-      <c r="G3">
-        <v>10.775167518357961</v>
-      </c>
-      <c r="H3">
-        <v>-2.3198708380351576</v>
-      </c>
-      <c r="I3">
-        <v>3.2170748954077837</v>
-      </c>
-      <c r="J3">
-        <v>16.071147537472356</v>
-      </c>
-      <c r="K3">
-        <v>18.885520849484571</v>
-      </c>
-      <c r="L3">
-        <v>13.96405661508885</v>
-      </c>
-      <c r="M3">
-        <v>-4.557968288815438</v>
-      </c>
-      <c r="N3">
-        <v>8.2072100431750528</v>
-      </c>
-      <c r="O3">
-        <v>-5.437886639877398</v>
-      </c>
-      <c r="P3">
-        <v>12.234002734477826</v>
-      </c>
-      <c r="Q3">
-        <v>4.9405148210753183</v>
-      </c>
-      <c r="R3">
-        <v>-0.88642084425319467</v>
-      </c>
-      <c r="S3">
-        <v>15.593538812303343</v>
-      </c>
-      <c r="T3">
-        <v>15.772331088666796</v>
-      </c>
-      <c r="U3">
-        <v>7.2521276951696549</v>
-      </c>
-      <c r="V3">
-        <v>10.246739059602127</v>
-      </c>
-      <c r="W3">
-        <v>1.4449797000328104</v>
-      </c>
-      <c r="X3">
-        <v>-2.7353796915538666</v>
-      </c>
-      <c r="Y3">
-        <v>18.263540685526173</v>
-      </c>
-      <c r="Z3">
-        <v>10.133870958005069</v>
-      </c>
-      <c r="AA3">
-        <v>19.150710723538509</v>
-      </c>
-      <c r="AB3">
-        <v>14.48737249167268</v>
-      </c>
-      <c r="AC3">
-        <v>14.281027520937393</v>
-      </c>
-      <c r="AD3">
-        <v>19.215279864004195</v>
-      </c>
-      <c r="AE3">
-        <v>11.005589484162122</v>
-      </c>
-      <c r="AF3">
-        <v>10.59067270478436</v>
-      </c>
-      <c r="AG3">
-        <v>5.7749154617261738</v>
-      </c>
-      <c r="AH3">
-        <v>2.3140144461823695</v>
-      </c>
-      <c r="AI3">
-        <v>15.92692691982964</v>
-      </c>
-      <c r="AJ3">
-        <v>16.157537433038776</v>
-      </c>
-      <c r="AK3">
-        <v>12.48161410239419</v>
-      </c>
-      <c r="AL3">
-        <v>7.445175881991382</v>
-      </c>
-      <c r="AM3">
-        <v>11.075482697776835</v>
-      </c>
-      <c r="AN3">
-        <v>-8.3587685124790596</v>
-      </c>
       <c r="AO3">
-        <v>17.632484511208069</v>
+        <v>18.8876620286945</v>
       </c>
       <c r="AP3">
-        <v>3.1542313283223748</v>
+        <v>3.6769244402452159</v>
       </c>
       <c r="AQ3">
-        <v>9.487007231834653</v>
+        <v>10.479197686557249</v>
       </c>
       <c r="AR3">
-        <v>25.654113877467914</v>
+        <v>25.654113847007487</v>
       </c>
       <c r="AS3">
-        <v>12.38037596178625</v>
+        <v>12.985104129303892</v>
       </c>
       <c r="AT3">
-        <v>8.8295577438152861</v>
+        <v>8.8295577149724949</v>
       </c>
       <c r="AU3">
-        <v>6.2564262150918566</v>
+        <v>6.2564262079721615</v>
       </c>
       <c r="AV3">
-        <v>3.1646231466549182</v>
+        <v>3.1646230956356902</v>
       </c>
       <c r="AW3">
-        <v>1.1428120131449759</v>
+        <v>1.142811982336255</v>
       </c>
       <c r="AX3">
-        <v>7.7824759444774827</v>
+        <v>7.7824759232084517</v>
       </c>
       <c r="AY3">
-        <v>19.824544592453968</v>
+        <v>20.098103580586987</v>
       </c>
     </row>
   </sheetData>
